--- a/4_example/case_study_2.0/4_additional_plots/nc10.xlsx
+++ b/4_example/case_study_2.0/4_additional_plots/nc10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\plots\plots_case_study_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_1.0\4_additional_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6831322-0754-4A2D-A76A-2D08BC2B0C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B3FF9-12E6-4B66-8627-1E14B405ED9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E71A76A9-1A8C-CE4F-992F-1CEB30169FB9}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -420,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2.5395229872094599E-5</v>
+        <v>2.5373633846282799E-5</v>
       </c>
       <c r="C2" s="2">
-        <v>9.1417606543804897E-5</v>
+        <v>9.1339873099565696E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,10 +431,10 @@
         <v>8.4666666666666703</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5397019785321301E-5</v>
+        <v>2.53753852060817E-5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.1415816630578201E-5</v>
+        <v>9.1338121739766893E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,10 +442,10 @@
         <v>16.933333333333302</v>
       </c>
       <c r="B4" s="2">
-        <v>2.5410750273792799E-5</v>
+        <v>2.5388721343385999E-5</v>
       </c>
       <c r="C4" s="2">
-        <v>9.1402086142106594E-5</v>
+        <v>9.13247856024625E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,10 +453,10 @@
         <v>25.4</v>
       </c>
       <c r="B5" s="2">
-        <v>2.5482749832580502E-5</v>
+        <v>2.5458061208161799E-5</v>
       </c>
       <c r="C5" s="2">
-        <v>9.1330086583318702E-5</v>
+        <v>9.1255445737686595E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>33.866666666666703</v>
       </c>
       <c r="B6" s="2">
-        <v>2.5773810488581599E-5</v>
+        <v>2.57354462076905E-5</v>
       </c>
       <c r="C6" s="2">
-        <v>9.1039025927315599E-5</v>
+        <v>9.0978060738156701E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +475,10 @@
         <v>42.3333333333333</v>
       </c>
       <c r="B7" s="2">
-        <v>2.6742978502893101E-5</v>
+        <v>2.66479830114691E-5</v>
       </c>
       <c r="C7" s="2">
-        <v>9.0069857912993597E-5</v>
+        <v>9.0065523934370904E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +486,10 @@
         <v>50.8</v>
       </c>
       <c r="B8" s="2">
-        <v>2.94926130541664E-5</v>
+        <v>2.92066847335379E-5</v>
       </c>
       <c r="C8" s="2">
-        <v>8.7320223361676605E-5</v>
+        <v>8.7506822212269703E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,10 +497,10 @@
         <v>59.266666666666701</v>
       </c>
       <c r="B9" s="2">
-        <v>3.6110550443337603E-5</v>
+        <v>3.5313787672193602E-5</v>
       </c>
       <c r="C9" s="2">
-        <v>8.0702285972365201E-5</v>
+        <v>8.1399719273495702E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,10 +508,10 @@
         <v>67.733333333333306</v>
       </c>
       <c r="B10" s="2">
-        <v>4.8950291140604603E-5</v>
+        <v>4.7152616168594397E-5</v>
       </c>
       <c r="C10" s="2">
-        <v>6.78625452747667E-5</v>
+        <v>6.9560890776762605E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,10 +519,10 @@
         <v>76.2</v>
       </c>
       <c r="B11" s="2">
-        <v>6.7485498785753906E-5</v>
+        <v>6.4428228194754597E-5</v>
       </c>
       <c r="C11" s="2">
-        <v>4.9327337629168002E-5</v>
+        <v>5.2285278749964603E-5</v>
       </c>
     </row>
   </sheetData>
